--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Acute Coronary Syndrome.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Acute Coronary Syndrome.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in patients with Type 2 Achalasia, which is often associated with CREST syndrome.</t>
+          <t>Dysphagia is a common symptom in Type 2 Achalasia due to esophageal motility disorder.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chest pain (angina-like symptoms)</t>
+          <t>Sudden onset of chest pain</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chest pain is a classic symptom of Acute Coronary Syndrome and is less common in CREST syndrome.</t>
+          <t>Acute chest pain is a classic presentation of Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Skin changes (such as sclerodactyly or telangiectasia)</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin changes are characteristic of CREST syndrome and are not typically present in Acute Coronary Syndrome.</t>
+          <t>Raynaud's phenomenon is a hallmark of CREST syndrome, indicating systemic sclerosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Shortness of breath (dyspnea)</t>
+          <t>Radiating pain to the left arm or jaw</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Shortness of breath is frequently reported in Acute Coronary Syndrome due to cardiac ischemia.</t>
+          <t>Pain radiating to the arm or jaw is characteristic of cardiac ischemia in ACS.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux symptoms</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux is frequently reported in patients with achalasia, particularly in the context of CREST syndrome.</t>
+          <t>Sclerodactyly is specific to CREST syndrome, involving skin thickening of the fingers.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nausea or vomiting</t>
+          <t>Associated diaphoresis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nausea or vomiting can occur in Acute Coronary Syndrome due to visceral pain and autonomic responses.</t>
+          <t>Diaphoresis (sweating) often accompanies the chest pain in ACS.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Esophageal symptoms without chest pain</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a hallmark of CREST syndrome and is not associated with Acute Coronary Syndrome.</t>
+          <t>Esophageal symptoms like dysphagia without chest pain are more indicative of achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Diaphoresis (sweating)</t>
+          <t>Nausea and vomiting</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Diaphoresis is a common symptom in Acute Coronary Syndrome, indicating sympathetic activation.</t>
+          <t>Nausea and vomiting are common in ACS due to autonomic nervous system involvement.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fatigue and malaise</t>
+          <t>History of skin tightening</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fatigue and malaise can be more pronounced in patients with systemic conditions like CREST syndrome compared to those with Acute Coronary Syndrome.</t>
+          <t>Skin tightening is associated with CREST syndrome, not typically seen in ACS.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Radiating pain (to arm, jaw, or back)</t>
+          <t>Shortness of breath with exertion</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Radiating pain is a classic feature of Acute Coronary Syndrome and is not typically seen in CREST syndrome.</t>
+          <t>Exertional dyspnea is frequently seen in ACS due to compromised cardiac function.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a common feature of CREST syndrome, indicating skin involvement.</t>
+          <t>Scleroderma is a key component of CREST syndrome, which is not associated with Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of coronary artery disease</t>
+          <t>History of myocardial infarction</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Coronary artery disease is a primary risk factor for Acute Coronary Syndrome.</t>
+          <t>A previous myocardial infarction is directly related to Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>History of esophageal motility disorder</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is frequently associated with CREST syndrome, suggesting vascular involvement.</t>
+          <t>Type 2 Achalasia is an esophageal motility disorder, commonly associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of hyperlipidemia</t>
+          <t>History of coronary artery disease</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is a significant risk factor for developing Acute Coronary Syndrome.</t>
+          <t>Coronary artery disease is a major risk factor for Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of esophageal dysmotility</t>
+          <t>History of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esophageal dysmotility is characteristic of Type 2 Achalasia, which is part of CREST syndrome.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of hypertension</t>
+          <t>History of angina</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hypertension is a well-known risk factor for Acute Coronary Syndrome.</t>
+          <t>Angina is a symptom of coronary artery disease, which is associated with Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>History of calcinosis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome, indicating systemic involvement.</t>
+          <t>Calcinosis is part of the CREST syndrome acronym and not related to Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Use of antiplatelet therapy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Smoking is a major risk factor for Acute Coronary Syndrome, indicating cardiovascular risk.</t>
+          <t>Antiplatelet therapy is commonly used in the management of Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal reflux disease (GERD)</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERD is common in patients with esophageal involvement in CREST syndrome.</t>
+          <t>Telangiectasia is a characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of diabetes mellitus</t>
+          <t>History of percutaneous coronary intervention</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Diabetes mellitus increases the risk of Acute Coronary Syndrome significantly.</t>
+          <t>This procedure is often performed in patients with Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases is more common in patients with CREST syndrome, indicating a genetic predisposition.</t>
+          <t>Autoimmune diseases, including CREST syndrome, often have a genetic component and may run in families.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of cardiovascular disease</t>
+          <t>Family history of coronary artery disease</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A family history of cardiovascular disease is a strong risk factor for Acute Coronary Syndrome.</t>
+          <t>Coronary artery disease often runs in families, increasing the risk for Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of esophageal symptoms</t>
+          <t>History of Raynaud's phenomenon in family</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome often report esophageal symptoms such as dysphagia, which are less common in Acute Coronary Syndrome.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome and may be present in family history.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Smoking history</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Smoking is a significant risk factor for Acute Coronary Syndrome and is less commonly reported in patients with CREST syndrome.</t>
+          <t>Smoking is a significant risk factor for developing Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica is associated with an increased risk of scleroderma, which can present as CREST syndrome.</t>
+          <t>Scleroderma is closely related to CREST syndrome and may indicate a genetic predisposition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sedentary lifestyle</t>
+          <t>History of hyperlipidemia in family</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A sedentary lifestyle is a known risk factor for Acute Coronary Syndrome, whereas patients with CREST syndrome may have different activity levels.</t>
+          <t>Hyperlipidemia is a risk factor for coronary artery disease and Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lifestyle factors indicating lower cardiovascular risk</t>
+          <t>Non-smoking status</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome may have lifestyle factors that are less associated with cardiovascular risk compared to those with Acute Coronary Syndrome.</t>
+          <t>Smoking is a risk factor for coronary artery disease, less common in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>High-fat diet</t>
+          <t>Sedentary lifestyle</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A high-fat diet is associated with increased risk of cardiovascular events, favoring Acute Coronary Syndrome over CREST syndrome.</t>
+          <t>A sedentary lifestyle is a risk factor for cardiovascular diseases, including Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Participation in activities with low physical strain</t>
+          <t>No family history of coronary artery disease</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Individuals with CREST syndrome may avoid high-strain activities due to symptoms, contrasting with the risk factors for Acute Coronary Syndrome.</t>
+          <t>Absence of coronary artery disease in family history may favor CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of hypertension</t>
+          <t>Family history of hypertension</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypertension is a common risk factor for Acute Coronary Syndrome and is less prevalent in patients with CREST syndrome.</t>
+          <t>Hypertension is a risk factor for coronary artery disease and Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes (sclerodactyly)</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome, indicating skin thickening and fibrosis.</t>
+          <t>Thickening and tightening of the skin on the fingers is characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chest pain (angina)</t>
+          <t>Chest pain</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chest pain is a classic symptom of Acute Coronary Syndrome, often described as pressure or tightness.</t>
+          <t>Severe, crushing chest pain is a hallmark of Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome, characterized by episodic color changes in fingers and toes.</t>
+          <t>Visible small blood vessels on the skin are common in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Diaphoresis (sweating)</t>
+          <t>Diaphoresis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Diaphoresis is commonly observed in Acute Coronary Syndrome, indicating sympathetic activation during ischemia.</t>
+          <t>Excessive sweating is commonly seen in Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is prevalent in Type 2 Achalasia due to esophageal motility issues, which is not typical in Acute Coronary Syndrome.</t>
+          <t>Calcium deposits under the skin are indicative of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Abnormal heart sounds (e.g., S3 gallop)</t>
+          <t>Tachycardia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>An S3 gallop can indicate heart failure or volume overload, which is more associated with Acute Coronary Syndrome.</t>
+          <t>Increased heart rate is often observed in Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome due to vascular changes, while it is less common in Acute Coronary Syndrome.</t>
+          <t>Color changes in fingers or toes in response to cold or stress are typical in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Elevated blood pressure</t>
+          <t>Hypotension</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Elevated blood pressure can be a response to stress or pain in Acute Coronary Syndrome, while it is less specific for CREST syndrome.</t>
+          <t>Low blood pressure can occur during an Acute Coronary Syndrome event.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Esophageal dilation on exam</t>
+          <t>Esophageal dysmotility</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esophageal dilation is a physical exam finding in Type 2 Achalasia, indicating impaired esophageal function.</t>
+          <t>Difficulty swallowing due to esophageal dysfunction is associated with Type 2 Achalasia in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tachycardia (increased heart rate)</t>
+          <t>Jugular venous distension</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tachycardia is a common finding in Acute Coronary Syndrome due to increased sympathetic tone and stress response.</t>
+          <t>Elevated jugular venous pressure can be seen in Acute Coronary Syndrome, especially with heart failure.</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated resting lower esophageal sphincter (LES) pressure</t>
+          <t>Esophageal manometry showing aperistalsis with increased lower esophageal sphincter pressure</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1076,100 +1076,100 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Elevated troponin levels</t>
+          <t>Elevated cardiac troponins</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Elevated troponin is a key marker for myocardial injury, supporting Acute Coronary Syndrome.</t>
+          <t>Elevated troponins are a hallmark of myocardial injury, strongly indicating Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium swallow study demonstrating dilated esophagus with incomplete LES relaxation</t>
+          <t>Barium swallow showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This imaging finding is indicative of achalasia, supporting the diagnosis of CREST syndrome.</t>
+          <t>The bird-beak appearance on barium swallow is indicative of achalasia, often seen in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ECG changes consistent with ischemia (e.g., ST-segment elevation or depression)</t>
+          <t>Electrocardiogram (ECG) showing ST-segment elevation</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ischemic changes on ECG are indicative of Acute Coronary Syndrome.</t>
+          <t>ST-segment elevation on ECG is indicative of myocardial infarction, a form of Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Antinuclear antibodies (ANA) positivity</t>
+          <t>Anticentromere antibodies</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ANA positivity is commonly found in autoimmune conditions like CREST syndrome.</t>
+          <t>Anticentromere antibodies are commonly found in CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Coronary angiography showing significant coronary artery stenosis</t>
+          <t>Coronary angiography showing coronary artery occlusion</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Significant stenosis on angiography is a definitive finding for Acute Coronary Syndrome.</t>
+          <t>Coronary artery occlusion seen on angiography confirms the presence of Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of anti-centromere antibodies</t>
+          <t>High-resolution esophageal manometry</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anti-centromere antibodies are specifically associated with CREST syndrome.</t>
+          <t>This test can confirm the diagnosis of Type 2 Achalasia by showing specific motility patterns.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Elevated creatine kinase-MB (CK-MB) levels</t>
+          <t>Echocardiogram showing regional wall motion abnormalities</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CK-MB elevation is a marker of myocardial damage, supporting Acute Coronary Syndrome.</t>
+          <t>Regional wall motion abnormalities on echocardiogram suggest ischemia or infarction, supporting Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chest X-ray showing dilated esophagus</t>
+          <t>Esophagogastroduodenoscopy (EGD) showing dilated esophagus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A dilated esophagus on imaging supports the diagnosis of achalasia, which is part of CREST syndrome.</t>
+          <t>EGD can reveal a dilated esophagus, which is consistent with achalasia in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cardiac stress test showing ischemic response</t>
+          <t>Stress test showing inducible ischemia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>An ischemic response during a stress test is indicative of underlying coronary artery disease.</t>
+          <t>Inducible ischemia on a stress test is indicative of coronary artery disease, a component of Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
